--- a/03_M0+BD/Gehyra25_model_comparison_v1.xlsx
+++ b/03_M0+BD/Gehyra25_model_comparison_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/gehyra25/03_M0+BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F8FF5-216C-C249-B854-C44CD350B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADC167-7FC6-F24A-94DA-77B3ED7C5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{2264BB97-8931-CB42-B9F2-3C2365E8B0E0}"/>
+    <workbookView xWindow="14160" yWindow="860" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{2264BB97-8931-CB42-B9F2-3C2365E8B0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table BioGeoBEARS" sheetId="2" r:id="rId1"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89A41EC-CFAF-0846-B57A-75495F0F02EF}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,7 +1676,7 @@
   <dimension ref="A2:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
